--- a/flash fill-answer.xlsx
+++ b/flash fill-answer.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hatted/Documents/Y/important/computer/Office/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtsang/GitHub/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33820" yWindow="460" windowWidth="24760" windowHeight="16820" activeTab="4"/>
+    <workbookView xWindow="1440" yWindow="3780" windowWidth="14500" windowHeight="16820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Combine" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,13 @@
     <sheet name="Initial" sheetId="4" r:id="rId4"/>
     <sheet name="Initial combine" sheetId="8" r:id="rId5"/>
     <sheet name="中文名" sheetId="7" r:id="rId6"/>
-    <sheet name="Data" sheetId="5" r:id="rId7"/>
+    <sheet name="Telephone" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="108">
   <si>
     <t>First Name</t>
   </si>
@@ -343,6 +346,26 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Full name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ada Chan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do Ada firstname, then add init to Ben B</t>
+  </si>
+  <si>
+    <t>=LEFT(A2,D2)</t>
+  </si>
+  <si>
+    <t>=FIND(" ", A2)-1</t>
+  </si>
+  <si>
+    <t>check =E2&amp;E2</t>
   </si>
 </sst>
 </file>
@@ -393,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -401,6 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,10 +978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1198,6 +1222,11 @@
         <v>47</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1205,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1216,9 +1245,12 @@
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1228,8 +1260,17 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1239,8 +1280,16 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>FIND(" ", A2)-1</f>
+        <v>3</v>
+      </c>
+      <c r="E2" t="str">
+        <f>LEFT(A2,D2)</f>
+        <v>Ada</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1250,8 +1299,16 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f t="shared" ref="D3:D21" si="0">FIND(" ", A3)-1</f>
+        <v>3</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E21" si="1">LEFT(A3,D3)</f>
+        <v>Ben</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1261,8 +1318,16 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>Cindy</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1272,8 +1337,16 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>Dave</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1283,8 +1356,16 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>Eddie</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -1294,8 +1375,16 @@
       <c r="C7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>Frankie</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1305,8 +1394,16 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Gigi</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1316,8 +1413,16 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>Henry</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1327,8 +1432,16 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>Irene</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1338,8 +1451,16 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>Jacky</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1349,8 +1470,16 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>Karen</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1360,8 +1489,16 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>Larry</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1371,8 +1508,16 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>Mary</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1382,8 +1527,16 @@
       <c r="C15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>Nancy</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1393,8 +1546,16 @@
       <c r="C16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>Owen</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1404,8 +1565,16 @@
       <c r="C17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>Peter</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1415,8 +1584,16 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>Queenie</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1426,8 +1603,16 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>Raymond</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1437,8 +1622,16 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>Sam</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1448,10 +1641,13 @@
       <c r="C21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>98</v>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>Tracy</v>
       </c>
     </row>
   </sheetData>
@@ -1461,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1692,6 +1888,11 @@
         <v>24</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1699,193 +1900,261 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>99</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>100</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>101</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2167,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
